--- a/results/comparaison/WM/diattenuation/mean_raw_data.xlsx
+++ b/results/comparaison/WM/diattenuation/mean_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,255 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0251063902480055</v>
+        <v>0.0297792955794687</v>
       </c>
       <c r="C2">
-        <v>0.0224686162351964</v>
+        <v>0.0403440126211933</v>
       </c>
       <c r="D2">
-        <v>0.0330517727323246</v>
+        <v>0.0391015447651162</v>
       </c>
       <c r="E2">
-        <v>0.0249413537261098</v>
+        <v>0.0218168018667424</v>
       </c>
       <c r="F2">
-        <v>0.0325569802588276</v>
+        <v>0.026039963840177</v>
+      </c>
+      <c r="G2">
+        <v>0.0433515558663276</v>
+      </c>
+      <c r="H2">
+        <v>0.0324267627417974</v>
+      </c>
+      <c r="I2">
+        <v>0.0277054867141284</v>
+      </c>
+      <c r="J2">
+        <v>0.0339787583916727</v>
+      </c>
+      <c r="K2">
+        <v>0.0219903450252917</v>
+      </c>
+      <c r="L2">
+        <v>0.036452637442093</v>
+      </c>
+      <c r="M2">
+        <v>0.0395137337956051</v>
+      </c>
+      <c r="N2">
+        <v>0.0316100630751342</v>
+      </c>
+      <c r="O2">
+        <v>0.0339805786092937</v>
+      </c>
+      <c r="P2">
+        <v>0.0292686158076019</v>
+      </c>
+      <c r="Q2">
+        <v>0.0363730269576053</v>
+      </c>
+      <c r="R2">
+        <v>0.0367401621036323</v>
+      </c>
+      <c r="S2">
+        <v>0.0338046628645778</v>
+      </c>
+      <c r="T2">
+        <v>0.0447638518940381</v>
+      </c>
+      <c r="U2">
+        <v>0.0393081743791372</v>
+      </c>
+      <c r="V2">
+        <v>0.0435476140766973</v>
+      </c>
+      <c r="W2">
+        <v>0.0466822605427834</v>
+      </c>
+      <c r="X2">
+        <v>0.0370984742463001</v>
+      </c>
+      <c r="Y2">
+        <v>0.0581939929762867</v>
+      </c>
+      <c r="Z2">
+        <v>0.0284370000439107</v>
+      </c>
+      <c r="AA2">
+        <v>0.0241479841650302</v>
+      </c>
+      <c r="AB2">
+        <v>0.0217270316945644</v>
+      </c>
+      <c r="AC2">
+        <v>0.0283069572136449</v>
+      </c>
+      <c r="AD2">
+        <v>0.024466512993903</v>
+      </c>
+      <c r="AE2">
+        <v>0.0227198742694971</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0249632290971183</v>
-      </c>
-      <c r="C3">
-        <v>0.0244186957304199</v>
-      </c>
-      <c r="D3">
-        <v>0.0306966470757255</v>
+        <v>0.0313802113563232</v>
       </c>
       <c r="E3">
-        <v>0.0273852352854189</v>
+        <v>0.0243096684102111</v>
       </c>
       <c r="F3">
-        <v>0.031879898342401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.0280730188754791</v>
-      </c>
-      <c r="C4">
-        <v>0.0272569927421069</v>
-      </c>
-      <c r="D4">
-        <v>0.0287948526136151</v>
-      </c>
-      <c r="E4">
-        <v>0.0291007843756661</v>
-      </c>
-      <c r="F4">
-        <v>0.0285348092346505</v>
+        <v>0.0255262049776566</v>
+      </c>
+      <c r="G3">
+        <v>0.0353926874282751</v>
+      </c>
+      <c r="H3">
+        <v>0.0273741250145081</v>
+      </c>
+      <c r="I3">
+        <v>0.024852703612994</v>
+      </c>
+      <c r="J3">
+        <v>0.0297378038661903</v>
+      </c>
+      <c r="K3">
+        <v>0.0190675320110422</v>
+      </c>
+      <c r="L3">
+        <v>0.026747366498273</v>
+      </c>
+      <c r="M3">
+        <v>0.0280134102231656</v>
+      </c>
+      <c r="O3">
+        <v>0.035079581653443</v>
+      </c>
+      <c r="P3">
+        <v>0.0224266863445584</v>
+      </c>
+      <c r="Q3">
+        <v>0.032686571334951</v>
+      </c>
+      <c r="R3">
+        <v>0.0400932685853638</v>
+      </c>
+      <c r="S3">
+        <v>0.026951841501824</v>
+      </c>
+      <c r="V3">
+        <v>0.0241426660527685</v>
+      </c>
+      <c r="W3">
+        <v>0.0312954951540172</v>
+      </c>
+      <c r="X3">
+        <v>0.0222078198860364</v>
+      </c>
+      <c r="Y3">
+        <v>0.0474982877386758</v>
+      </c>
+      <c r="Z3">
+        <v>0.0241695089811021</v>
+      </c>
+      <c r="AA3">
+        <v>0.0296254304730385</v>
+      </c>
+      <c r="AB3">
+        <v>0.032830052416568</v>
+      </c>
+      <c r="AC3">
+        <v>0.0275614517205829</v>
+      </c>
+      <c r="AD3">
+        <v>0.030314828574461</v>
+      </c>
+      <c r="AE3">
+        <v>0.0306719847072906</v>
       </c>
     </row>
   </sheetData>
